--- a/策划案/镇魂街/游戏节奏.xlsx
+++ b/策划案/镇魂街/游戏节奏.xlsx
@@ -2472,7 +2472,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -2502,6 +2502,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="13" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="13">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="13" quotePrefix="1">
@@ -2900,15 +2903,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="60.125" customWidth="1"/>
+    <col min="4" max="4" width="61.75" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="33.375" customWidth="1"/>
     <col min="7" max="7" width="40.625" customWidth="1"/>
@@ -3045,14 +3048,14 @@
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -3087,14 +3090,14 @@
       <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -3154,29 +3157,29 @@
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
@@ -3232,14 +3235,14 @@
       <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
@@ -3321,16 +3324,16 @@
       <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
@@ -3395,16 +3398,16 @@
       <c r="A24" s="8">
         <v>21</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
@@ -3467,16 +3470,16 @@
       <c r="A28" s="8">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
@@ -3547,16 +3550,16 @@
       <c r="A32" s="8">
         <v>29</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
@@ -3877,16 +3880,16 @@
       <c r="A48" s="8">
         <v>45</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
@@ -4586,7 +4589,7 @@
         <v>275</v>
       </c>
       <c r="C79" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>265</v>
@@ -4608,8 +4611,8 @@
       <c r="B80" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C80" s="8">
-        <v>8</v>
+      <c r="C80" s="11">
+        <v>9</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>272</v>
@@ -4631,8 +4634,8 @@
       <c r="B81" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C81" s="8">
-        <v>8</v>
+      <c r="C81" s="11">
+        <v>9</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>282</v>
@@ -4655,7 +4658,7 @@
         <v>284</v>
       </c>
       <c r="C82" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>268</v>
@@ -4677,8 +4680,8 @@
       <c r="B83" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C83" s="8">
-        <v>8</v>
+      <c r="C83" s="11">
+        <v>10</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>268</v>
@@ -4700,8 +4703,8 @@
       <c r="B84" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="8">
-        <v>8</v>
+      <c r="C84" s="11">
+        <v>10</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>290</v>
@@ -4724,7 +4727,7 @@
         <v>293</v>
       </c>
       <c r="C85" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>265</v>
@@ -4746,8 +4749,8 @@
       <c r="B86" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C86" s="8">
-        <v>8</v>
+      <c r="C86" s="11">
+        <v>11</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>265</v>
@@ -4769,8 +4772,8 @@
       <c r="B87" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C87" s="8">
-        <v>8</v>
+      <c r="C87" s="11">
+        <v>11</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>265</v>
@@ -4793,7 +4796,7 @@
         <v>301</v>
       </c>
       <c r="C88" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>302</v>
@@ -4815,8 +4818,8 @@
       <c r="B89" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C89" s="8">
-        <v>8</v>
+      <c r="C89" s="11">
+        <v>12</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>265</v>
@@ -4838,8 +4841,8 @@
       <c r="B90" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C90" s="8">
-        <v>8</v>
+      <c r="C90" s="11">
+        <v>12</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>268</v>
